--- a/Latest Results/Hyperparameter Tuning Results.xlsx
+++ b/Latest Results/Hyperparameter Tuning Results.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
